--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2397796.142339875</v>
+        <v>-2400277.062165334</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1382,13 +1382,13 @@
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.2676152010494</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
         <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>82.96769316753971</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>264.9116135294927</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>111.4707380419986</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>68.85017973406268</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271168</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1594,7 +1594,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>269.9666040133848</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.87068914618753</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>41.50155770811651</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
@@ -1825,7 +1825,7 @@
         <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>142.9256144967117</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
@@ -1850,10 +1850,10 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>152.0828573063209</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>337.0264424477344</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245684</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.2712996729238</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249335</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721223</v>
+        <v>133.9254590121757</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4571372041191</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432833</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>214.2140663782808</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359924</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>9.362935956138603</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>254.1613077246353</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249335</v>
+        <v>137.1198840074568</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X22" t="n">
-        <v>214.2140663782812</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245684</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249335</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F25" t="n">
-        <v>133.9254590121749</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4571372041191</v>
+        <v>22.45713720411904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432833</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130727</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>93.13769105450123</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>89.27723295060926</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,16 +3560,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G40" t="n">
-        <v>110.5480262953167</v>
+        <v>119.3005938533746</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007078</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383223</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052277</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010729</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846411</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>90.60953276887609</v>
+        <v>47.07029468621572</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>239.4866237999598</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.9983213925779</v>
@@ -3986,10 +3986,10 @@
         <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592154</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007073</v>
+        <v>11.50304156007078</v>
       </c>
       <c r="T44" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307968</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279485</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383218</v>
+        <v>82.14725995383223</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>111.7690391349172</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010723</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846405</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482612</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309231</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621572</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T46" t="n">
-        <v>165.4034671307261</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239897</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1884.43143472439</v>
+        <v>1496.55105182911</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.660985043702</v>
+        <v>1154.780602148422</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.587353696675</v>
+        <v>823.7069708013955</v>
       </c>
       <c r="E11" t="n">
-        <v>852.9911683581547</v>
+        <v>465.1107854628749</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1973308282708</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31694793299103</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299103</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395989</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.507220395989</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.16881092955</v>
+        <v>3099.267412142731</v>
       </c>
       <c r="V11" t="n">
-        <v>3016.16881092955</v>
+        <v>2795.396592058884</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.592222919159</v>
+        <v>2469.820004048494</v>
       </c>
       <c r="X11" t="n">
-        <v>2606.786472244876</v>
+        <v>2123.546313047137</v>
       </c>
       <c r="Y11" t="n">
-        <v>2243.839207528788</v>
+        <v>1855.958824633508</v>
       </c>
     </row>
     <row r="12">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609365</v>
+        <v>611.9131494447423</v>
       </c>
       <c r="C13" t="n">
-        <v>276.5685218927536</v>
+        <v>499.3164443518144</v>
       </c>
       <c r="D13" t="n">
-        <v>276.5685218927536</v>
+        <v>376.3918721992024</v>
       </c>
       <c r="E13" t="n">
-        <v>276.5685218927536</v>
+        <v>255.670845876533</v>
       </c>
       <c r="F13" t="n">
-        <v>276.5685218927536</v>
+        <v>255.670845876533</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0577525271962</v>
+        <v>255.670845876533</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705051</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402564</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O13" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
         <v>2077.863719075785</v>
@@ -5230,19 +5230,19 @@
         <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
         <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535525</v>
+        <v>967.1670306535519</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152588</v>
+        <v>766.3695470152584</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314525</v>
+        <v>766.3695470152584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2154.822967855899</v>
+        <v>1681.039939029558</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175211</v>
+        <v>1339.26948934887</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828184</v>
+        <v>1008.195858001843</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>735.502318594384</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597799</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645001</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299104</v>
+        <v>81.31694793299107</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5279,22 +5279,22 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3282.30209519888</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3103.516414842826</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="U14" t="n">
-        <v>2877.178005376385</v>
+        <v>3016.16881092955</v>
       </c>
       <c r="V14" t="n">
-        <v>2877.178005376385</v>
+        <v>2712.297990845703</v>
       </c>
       <c r="W14" t="n">
-        <v>2877.178005376385</v>
+        <v>2386.721402835312</v>
       </c>
       <c r="X14" t="n">
-        <v>2877.178005376385</v>
+        <v>2040.447711833956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2514.230740660297</v>
+        <v>2040.447711833956</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064548</v>
@@ -5355,28 +5355,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3126375609362</v>
+        <v>690.6248303362531</v>
       </c>
       <c r="C16" t="n">
-        <v>418.3126375609362</v>
+        <v>548.8807146680699</v>
       </c>
       <c r="D16" t="n">
-        <v>418.3126375609362</v>
+        <v>425.9561425154579</v>
       </c>
       <c r="E16" t="n">
-        <v>297.5916112382668</v>
+        <v>305.2351161927886</v>
       </c>
       <c r="F16" t="n">
-        <v>297.5916112382668</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765329</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003743</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5455,7 +5455,7 @@
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
@@ -5473,13 +5473,13 @@
         <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535522</v>
+        <v>1085.022825858353</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152586</v>
+        <v>884.2253422200595</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314523</v>
+        <v>690.6248303362531</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1697.792834060367</v>
+        <v>1518.976134084841</v>
       </c>
       <c r="C17" t="n">
-        <v>1403.472017327753</v>
+        <v>1224.655317352226</v>
       </c>
       <c r="D17" t="n">
-        <v>1119.848018928799</v>
+        <v>941.0313189532729</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446361</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628256</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5525,40 +5525,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.620805936081</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.199618800307</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2624.07266373799</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2325.248605684707</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2009.750973916692</v>
+        <v>1830.934273941166</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5613,7 +5613,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872286</v>
+        <v>632.151773123555</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671186</v>
+        <v>537.8572904034452</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>462.3823511989065</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>389.1109578243104</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5698,7 +5698,7 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
         <v>1647.936691865764</v>
@@ -5707,16 +5707,16 @@
         <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201114</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
         <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454044</v>
+        <v>885.3094166817308</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096713</v>
+        <v>739.1585377459977</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="C20" t="n">
         <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446363</v>
+        <v>966.2289711446361</v>
       </c>
       <c r="F20" t="n">
         <v>629.8847665628257</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3316.148310542365</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.727123406592</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344275</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290992</v>
+        <v>2188.455293558377</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522977</v>
+        <v>1872.957661790362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5859,22 +5859,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872286</v>
+        <v>632.151773123555</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671186</v>
+        <v>537.8572904034452</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.1960934060411</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
         <v>1795.061607088441</v>
@@ -5941,7 +5941,7 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
         <v>1253.432737201115</v>
@@ -5950,10 +5950,10 @@
         <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454044</v>
+        <v>885.3094166817308</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096713</v>
+        <v>739.1585377459977</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056952</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925384</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349345</v>
+        <v>973.0946095349368</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953124</v>
+        <v>636.750404953126</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
         <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2691.558850026898</v>
+        <v>2630.393665329807</v>
       </c>
       <c r="P23" t="n">
-        <v>3086.333216384076</v>
+        <v>3151.392472058329</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893064</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913277</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714076</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902806</v>
       </c>
       <c r="D24" t="n">
         <v>625.0220539290294</v>
@@ -6054,46 +6054,46 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094445</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130999</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934471</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061119</v>
+        <v>772.0173836061125</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277039</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923639</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138534</v>
+        <v>575.9874173775272</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937434</v>
+        <v>481.6929346574174</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892047</v>
+        <v>406.2179954528787</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9765962146086</v>
+        <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634006</v>
+        <v>96.06173179634003</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.927245478739</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259233</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720292</v>
+        <v>829.145060935703</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362961</v>
+        <v>682.9941819999699</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,31 +6224,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6257,19 +6257,19 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6315,13 +6315,13 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,34 +6382,34 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960301</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973131</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982159</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>1045.699547878786</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1496.733761127194</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>2030.265665799119</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N29" t="n">
-        <v>2577.044482857901</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O29" t="n">
-        <v>3080.016953737238</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3477.955591919094</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3936.433794428082</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6561,28 +6561,28 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>2200.835586644151</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.094314970129</v>
+        <v>2747.614403702933</v>
       </c>
       <c r="O32" t="n">
-        <v>3336.058965299584</v>
+        <v>3250.58687458227</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3645.361240939448</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6783,22 +6783,22 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6880,10 +6880,10 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,19 +6935,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -7017,16 +7017,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5641013650705</v>
+        <v>740.9069705127577</v>
       </c>
       <c r="C37" t="n">
-        <v>473.299353011007</v>
+        <v>670.6422221586942</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725147</v>
+        <v>576.5637463460666</v>
       </c>
       <c r="E37" t="n">
-        <v>372.612489163965</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>324.3939762398981</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>156.691139614617</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7132,13 +7132,13 @@
         <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>847.333710764997</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953103</v>
+        <v>823.8840007691539</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464984</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
@@ -7187,7 +7187,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7199,25 +7199,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7272,7 +7272,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.235535938914</v>
+        <v>453.7336441225987</v>
       </c>
       <c r="C40" t="n">
-        <v>571.9707875848505</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725148</v>
+        <v>332.0236909300429</v>
       </c>
       <c r="E40" t="n">
-        <v>273.9410545901217</v>
+        <v>282.7820319214932</v>
       </c>
       <c r="F40" t="n">
-        <v>225.7225416660547</v>
+        <v>234.5635189974263</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332018</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>978.8956707359729</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>788.1499352728557</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388405</v>
+        <v>658.8318189486818</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953104</v>
+        <v>536.710674378995</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7391,52 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668174</v>
@@ -7482,10 +7482,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650705</v>
+        <v>599.6022649647788</v>
       </c>
       <c r="C43" t="n">
-        <v>473.299353011007</v>
+        <v>529.3375166107154</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725147</v>
+        <v>477.8923117722231</v>
       </c>
       <c r="E43" t="n">
-        <v>372.612489163965</v>
+        <v>428.6506527636735</v>
       </c>
       <c r="F43" t="n">
-        <v>324.3939762398981</v>
+        <v>281.7607052657631</v>
       </c>
       <c r="G43" t="n">
-        <v>255.3625741884604</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U43" t="n">
-        <v>1323.410616184332</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552288</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>877.9803925153276</v>
+        <v>934.0185561150355</v>
       </c>
       <c r="X43" t="n">
-        <v>748.6622761911536</v>
+        <v>804.7004397908617</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214669</v>
+        <v>682.579295221175</v>
       </c>
     </row>
     <row r="44">
@@ -7631,28 +7631,28 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464977</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7673,7 +7673,7 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668174</v>
@@ -7691,7 +7691,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.9279421464332</v>
+        <v>839.5784050866016</v>
       </c>
       <c r="C46" t="n">
-        <v>527.9917592185263</v>
+        <v>726.6803857584024</v>
       </c>
       <c r="D46" t="n">
-        <v>476.5465543800341</v>
+        <v>576.5637463460666</v>
       </c>
       <c r="E46" t="n">
-        <v>427.3048953714846</v>
+        <v>428.6506527636735</v>
       </c>
       <c r="F46" t="n">
-        <v>379.0863824474178</v>
+        <v>281.7607052657631</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1568.534454692363</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1378.10302239185</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.089968759807</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>1031.34423329669</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>902.0261169725159</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.9049724028293</v>
+        <v>922.5554353429978</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430628</v>
+        <v>157.2353108430626</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729003</v>
+        <v>184.4039433729</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389598</v>
+        <v>191.4948909389594</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333061</v>
+        <v>181.0856325333056</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830234</v>
+        <v>179.3553748830229</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383984</v>
+        <v>182.830155438398</v>
       </c>
       <c r="P8" t="n">
-        <v>190.890803558658</v>
+        <v>190.8908035586576</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.010383626612</v>
+        <v>192.0103836266117</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875972</v>
+        <v>112.6562001875971</v>
       </c>
       <c r="K9" t="n">
-        <v>113.603122337253</v>
+        <v>113.6031223372528</v>
       </c>
       <c r="L9" t="n">
-        <v>105.962971867227</v>
+        <v>105.9629718672266</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253588</v>
+        <v>104.1013981253584</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677605</v>
+        <v>92.30246558677565</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359731</v>
+        <v>106.8829608359727</v>
       </c>
       <c r="P9" t="n">
-        <v>105.311348779832</v>
+        <v>105.3113487798317</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615455</v>
+        <v>120.8212784615453</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564655</v>
+        <v>116.1755252564654</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085225</v>
+        <v>119.1996074085223</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140775</v>
+        <v>108.4284123140773</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530922</v>
+        <v>120.6694600530921</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662702</v>
+        <v>122.5080856662701</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>61.78301484554686</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>127.4994347185292</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665437</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>277.2206841544158</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>62.52018570663878</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>19.40311602546689</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>40.02214132148649</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
         <v>267.687617800194</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104922</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>259.8432609238029</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>94.40617853943445</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>28.85593646950279</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>48.98468859313165</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>85.04361947175056</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.39692605486186</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>97.60410396378526</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>116.6772372527529</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,10 +23738,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>155.9522295602219</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.0713557774107221</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245682</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>167.7369527970444</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>41.67450974811464</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1322564.790392019</v>
+        <v>1322564.79039202</v>
       </c>
     </row>
     <row r="8">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.63387170382</v>
       </c>
       <c r="C2" t="n">
-        <v>81927.63387170386</v>
+        <v>81927.63387170385</v>
       </c>
       <c r="D2" t="n">
         <v>81929.86698059463</v>
@@ -26323,37 +26323,37 @@
         <v>72954.00009049744</v>
       </c>
       <c r="F2" t="n">
-        <v>72954.00009049744</v>
+        <v>72954.00009049747</v>
       </c>
       <c r="G2" t="n">
-        <v>79453.08212465351</v>
+        <v>79453.08212465352</v>
       </c>
       <c r="H2" t="n">
         <v>79453.08212465355</v>
       </c>
       <c r="I2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642833</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642834</v>
       </c>
     </row>
     <row r="3">
@@ -26369,43 +26369,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.5536755236</v>
+        <v>59764.5536755242</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983357</v>
+        <v>22821.46782983369</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179698</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.364242052659392e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,19 +26421,19 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475037</v>
+        <v>426120.6833475034</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863748</v>
+        <v>39414.21797863746</v>
       </c>
       <c r="F4" t="n">
         <v>39414.21797863748</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007968</v>
+        <v>76442.37834007971</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007967</v>
+        <v>76442.37834007971</v>
       </c>
       <c r="I4" t="n">
         <v>89331.33560602847</v>
@@ -26442,22 +26442,22 @@
         <v>86909.55729936338</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.5572993634</v>
+        <v>86909.55729936343</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.5572993634</v>
+        <v>86909.55729936338</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="N4" t="n">
+        <v>91573.95495316944</v>
+      </c>
+      <c r="O4" t="n">
+        <v>91573.95495316951</v>
+      </c>
+      <c r="P4" t="n">
         <v>91573.95495316948</v>
-      </c>
-      <c r="O4" t="n">
-        <v>91573.95495316942</v>
-      </c>
-      <c r="P4" t="n">
-        <v>91573.95495316951</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186638</v>
+        <v>35148.90543186639</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26482,25 +26482,25 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184209</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398724.586400689</v>
+        <v>-398728.9999785572</v>
       </c>
       <c r="C6" t="n">
-        <v>-398724.586400689</v>
+        <v>-398728.9999785571</v>
       </c>
       <c r="D6" t="n">
-        <v>-439104.275474299</v>
+        <v>-439108.6332244452</v>
       </c>
       <c r="E6" t="n">
-        <v>-1132268.680416598</v>
+        <v>-1132497.434838996</v>
       </c>
       <c r="F6" t="n">
-        <v>-43029.70825296646</v>
+        <v>-43258.46267536473</v>
       </c>
       <c r="G6" t="n">
-        <v>-115088.0486355151</v>
+        <v>-115154.3260070595</v>
       </c>
       <c r="H6" t="n">
-        <v>-77507.93934064113</v>
+        <v>-77574.21671218541</v>
       </c>
       <c r="I6" t="n">
-        <v>-115785.1547512758</v>
+        <v>-115785.154751276</v>
       </c>
       <c r="J6" t="n">
-        <v>-119592.7550095381</v>
+        <v>-119592.755009538</v>
       </c>
       <c r="K6" t="n">
-        <v>-94183.32198774119</v>
+        <v>-94183.3219877412</v>
       </c>
       <c r="L6" t="n">
         <v>-131763.4312826152</v>
       </c>
       <c r="M6" t="n">
-        <v>-294156.4752657152</v>
+        <v>-294156.4752657153</v>
       </c>
       <c r="N6" t="n">
+        <v>-91988.37527299096</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-91988.37527299111</v>
+      </c>
+      <c r="P6" t="n">
         <v>-91988.37527299099</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-91988.37527299095</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-91988.37527299118</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790736</v>
+        <v>69.78465283790807</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26802,34 +26802,34 @@
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810297</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859255</v>
-      </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951245</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790736</v>
+        <v>69.78465283790807</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.99204775539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873682</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780172</v>
+        <v>132.246564378017</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256562</v>
+        <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672099</v>
+        <v>84.22861846672095</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987504</v>
+        <v>90.83829126987496</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192289</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519072</v>
+        <v>84.46220888519062</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990134</v>
+        <v>7.649035050989987</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317038</v>
+        <v>75.62456067317027</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437877</v>
+        <v>171.6351144437876</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712647</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075554</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X19" t="n">
-        <v>11.49558901075636</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075554</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X22" t="n">
-        <v>11.49558901075591</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F25" t="n">
-        <v>11.49558901075639</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075528</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859134</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>55.47778196371152</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G40" t="n">
-        <v>55.47778196371152</v>
+        <v>46.7252144056536</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>54.14548214544469</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565305</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>55.47778196371063</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810512</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810512</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810512</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810512</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T46" t="n">
-        <v>54.14548214544308</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810512</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413359</v>
+        <v>0.2805413179413387</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366707</v>
+        <v>2.873093772366736</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993336</v>
+        <v>10.81556915993347</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362348</v>
+        <v>23.81059368362372</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208023</v>
+        <v>35.6859076720806</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310274</v>
+        <v>44.27152403102785</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396664</v>
+        <v>49.26060069396713</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356746</v>
+        <v>50.05768871356797</v>
       </c>
       <c r="O8" t="n">
-        <v>47.2680559832883</v>
+        <v>47.26805598328878</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661156</v>
+        <v>40.34219219661197</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783746</v>
+        <v>30.29530624783777</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313246</v>
+        <v>17.62255356313264</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588198</v>
+        <v>6.392835282588264</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288199</v>
+        <v>1.228069619288211</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530687</v>
+        <v>0.0224433054353071</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796498</v>
+        <v>0.1501028381796513</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840302</v>
+        <v>1.449677410840317</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694083</v>
+        <v>5.168014384694136</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906946</v>
+        <v>14.1814264790696</v>
       </c>
       <c r="K9" t="n">
-        <v>24.238316637106</v>
+        <v>24.23831663710624</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264721</v>
+        <v>32.59140791264754</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665951</v>
+        <v>38.0326357966599</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655725</v>
+        <v>39.03924649655765</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847132</v>
+        <v>35.71328360847169</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449822</v>
+        <v>28.66305863449851</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.160495624476</v>
+        <v>19.16049562447619</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768085</v>
+        <v>9.319542882768179</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608844</v>
+        <v>2.788094384608872</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890268</v>
+        <v>0.605019773189033</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345386</v>
+        <v>0.009875186722345487</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486854</v>
+        <v>0.1258411772486867</v>
       </c>
       <c r="H10" t="n">
-        <v>1.11884246681104</v>
+        <v>1.118842466811051</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078649</v>
+        <v>3.784387403078687</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482057</v>
+        <v>8.896971231482148</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489272</v>
+        <v>14.62045677489287</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477274</v>
+        <v>18.70915102477293</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908256</v>
+        <v>19.72617653908276</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115566</v>
+        <v>19.25713215115585</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875056</v>
+        <v>17.78707839875074</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287736</v>
+        <v>15.21991838287752</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852401</v>
+        <v>10.53748257852412</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381797</v>
+        <v>5.658276933381855</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233907</v>
+        <v>2.19306851623393</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625647</v>
+        <v>0.5376850300625702</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564666</v>
+        <v>0.006864064213564735</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O27" t="n">
         <v>557.7086478970249</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34223,13 +34223,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34460,7 +34460,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002926</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,7 +35811,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>569.8360157337659</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>526.2614209379011</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>827.137011779455</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525805</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165885</v>
+        <v>92.55355323165753</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>614.4119707098162</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>122.1333842488635</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637025</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>418.1651022448385</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>290.8164461252059</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38108,7 +38108,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
